--- a/4-25 model/Merck_Yale_AMR_Carb_NS_Analysis_24April2018.xlsx
+++ b/4-25 model/Merck_Yale_AMR_Carb_NS_Analysis_24April2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amber\Documents\Yale\CIDMA\AMR\Carbapenem-Resistance\4-25 model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D91008-B82A-441C-8A4C-1CB483E18541}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EEFEC-DDA6-4D97-A7B2-73C970ED012B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3267,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3936,11 +3936,11 @@
   <dimension ref="A2:S45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6620,7 +6620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
